--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>玩家名：</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>女性</t>
+  </si>
+  <si>
+    <t>种族特性：</t>
   </si>
   <si>
     <t>年龄</t>
@@ -366,9 +369,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -380,31 +383,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,7 +414,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,9 +457,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,8 +480,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -472,29 +519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -502,27 +526,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -533,25 +536,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,157 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,35 +732,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,7 +760,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,6 +780,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -815,15 +827,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -832,145 +835,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1419,168 +1422,174 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <f>45-SUM(B7:B14)</f>
         <v>5</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1588,164 +1597,236 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15">
-        <f>25-SUM(SUM(B16:B27),SUM(D17:D27))</f>
+        <f>(IF(D4=3,20+D2*5,25+D2*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1865,7 +1946,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1880,7 +1961,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1895,7 +1976,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1910,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1922,7 +2003,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1940,7 +2021,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1958,7 +2039,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1976,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -1994,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2012,7 +2093,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2030,7 +2111,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -2048,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -2066,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -2084,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2102,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2114,7 +2195,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2126,7 +2207,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2138,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2150,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2162,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -368,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -384,28 +384,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -414,22 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,20 +408,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +438,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +453,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,9 +491,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,61 +536,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,121 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,12 +730,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -752,15 +765,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,9 +786,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,23 +822,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,133 +847,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,6 +1566,10 @@
       <c r="C12" t="s">
         <v>42</v>
       </c>
+      <c r="D12">
+        <f>13-SUM(D13,F13,D15,F15)</f>
+        <v>0</v>
+      </c>
       <c r="G12" t="s">
         <v>43</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1583,8 +1587,14 @@
       <c r="C13" t="s">
         <v>46</v>
       </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
       <c r="E13" t="s">
         <v>47</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1595,7 +1605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1606,8 +1616,14 @@
       <c r="C15" t="s">
         <v>50</v>
       </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15" t="s">
         <v>51</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9915" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="心灵状况" sheetId="5" r:id="rId5"/>
     <sheet name="后台数据" sheetId="6" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡面!$A$1:$G$27</definedName>
   </definedNames>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>玩家名：</t>
   </si>
@@ -54,6 +57,12 @@
     <t>头</t>
   </si>
   <si>
+    <t>父亲赠来的发带</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>种族：</t>
   </si>
   <si>
@@ -66,6 +75,9 @@
     <t>颈</t>
   </si>
   <si>
+    <t>诅咒项圈</t>
+  </si>
+  <si>
     <t>性别：</t>
   </si>
   <si>
@@ -75,34 +87,58 @@
     <t>种族特性：</t>
   </si>
   <si>
+    <t>无种族特性</t>
+  </si>
+  <si>
     <t>年龄</t>
   </si>
   <si>
     <t>内衣</t>
   </si>
   <si>
+    <t>轻薄内衣</t>
+  </si>
+  <si>
     <t>身躯</t>
   </si>
   <si>
+    <t>修补的镀银护甲</t>
+  </si>
+  <si>
     <t>职业：</t>
   </si>
   <si>
     <t>骑士</t>
   </si>
   <si>
+    <t>色域等级：</t>
+  </si>
+  <si>
+    <t>破旧的贵族洋装</t>
+  </si>
+  <si>
     <t>属性</t>
   </si>
   <si>
+    <t>象限</t>
+  </si>
+  <si>
     <t>手臂</t>
   </si>
   <si>
     <t>护手</t>
   </si>
   <si>
+    <t>镀银护手</t>
+  </si>
+  <si>
     <t>力量</t>
   </si>
   <si>
-    <t>象限</t>
+    <t>坚韧</t>
+  </si>
+  <si>
+    <t>主动</t>
   </si>
   <si>
     <t>裙装</t>
@@ -111,75 +147,84 @@
     <t>体质</t>
   </si>
   <si>
-    <t>坚韧</t>
-  </si>
-  <si>
-    <t>主动</t>
-  </si>
-  <si>
     <t>内裤</t>
   </si>
   <si>
+    <t>轻薄内裤</t>
+  </si>
+  <si>
+    <t>骑士甲裙</t>
+  </si>
+  <si>
     <t>反应</t>
   </si>
   <si>
+    <t>心防</t>
+  </si>
+  <si>
+    <t>共情</t>
+  </si>
+  <si>
     <t>下身</t>
   </si>
   <si>
+    <t>破碎的裤袜</t>
+  </si>
+  <si>
     <t>敏捷</t>
   </si>
   <si>
-    <t>心防</t>
-  </si>
-  <si>
-    <t>共情</t>
-  </si>
-  <si>
     <t>袜子</t>
   </si>
   <si>
     <t>护腿</t>
   </si>
   <si>
+    <t>镀银护靴</t>
+  </si>
+  <si>
     <t>智慧</t>
   </si>
   <si>
+    <t>人格</t>
+  </si>
+  <si>
     <t>鞋</t>
   </si>
   <si>
     <t>意志</t>
   </si>
   <si>
-    <t>人格</t>
+    <t>勇气</t>
+  </si>
+  <si>
+    <t>慈爱</t>
   </si>
   <si>
     <t>剑鞘</t>
   </si>
   <si>
+    <t>瘴气抵抗</t>
+  </si>
+  <si>
     <t>护甲等级</t>
   </si>
   <si>
     <t>感知</t>
   </si>
   <si>
-    <t>勇气</t>
-  </si>
-  <si>
-    <t>慈爱</t>
-  </si>
-  <si>
     <t>魅力</t>
   </si>
   <si>
+    <t>欲望</t>
+  </si>
+  <si>
+    <t>荣誉</t>
+  </si>
+  <si>
     <t>人物技能</t>
   </si>
   <si>
-    <t>欲望</t>
-  </si>
-  <si>
-    <t>荣誉</t>
-  </si>
-  <si>
     <t>近战武器</t>
   </si>
   <si>
@@ -306,18 +351,33 @@
     <t>T1</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
+    <t>II</t>
+  </si>
+  <si>
     <t>T3</t>
   </si>
   <si>
+    <t>III</t>
+  </si>
+  <si>
     <t>T4</t>
   </si>
   <si>
+    <t>IV</t>
+  </si>
+  <si>
     <t>T5</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
@@ -339,6 +399,9 @@
     <t>侍从</t>
   </si>
   <si>
+    <t>T0</t>
+  </si>
+  <si>
     <t>女仆</t>
   </si>
   <si>
@@ -361,6 +424,60 @@
   </si>
   <si>
     <t>魔法少女</t>
+  </si>
+  <si>
+    <t>快速学习</t>
+  </si>
+  <si>
+    <t>心灵感应</t>
+  </si>
+  <si>
+    <t>强韧身体</t>
+  </si>
+  <si>
+    <t>魔力视线</t>
+  </si>
+  <si>
+    <t>博学</t>
+  </si>
+  <si>
+    <t>冷酷杀手</t>
+  </si>
+  <si>
+    <t>热能视线</t>
+  </si>
+  <si>
+    <t>天生猎手</t>
+  </si>
+  <si>
+    <t>闪电反射</t>
+  </si>
+  <si>
+    <t>空间折叠模组</t>
+  </si>
+  <si>
+    <t>心意防璧模组</t>
+  </si>
+  <si>
+    <t>屈光透镜模组</t>
+  </si>
+  <si>
+    <t>复仇之灵</t>
+  </si>
+  <si>
+    <t>未完之灵</t>
+  </si>
+  <si>
+    <t>守护之灵</t>
+  </si>
+  <si>
+    <t>爱欲化身</t>
+  </si>
+  <si>
+    <t>惩戒化身</t>
+  </si>
+  <si>
+    <t>宁静化身</t>
   </si>
 </sst>
 </file>
@@ -368,11 +485,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -384,7 +501,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,22 +509,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,39 +560,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,14 +585,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,18 +636,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -536,7 +653,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,43 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,19 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,110 +837,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -730,17 +847,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,7 +911,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,28 +942,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,8 +993,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -847,141 +1044,216 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,6 +1338,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="人物表"/>
+      <sheetName val="参数等等（勿动）"/>
+      <sheetName val="技能"/>
+      <sheetName val="人物参数表"/>
+      <sheetName val="人物信息"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1342,18 +1635,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="12.625"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1363,14 +1658,20 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1390,458 +1691,673 @@
       <c r="F2">
         <v>3800</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N2" t="s">
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20">
+        <v>0</v>
+      </c>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:18">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(D2,后台数据!C1:D5,2,2)</f>
         <v>T3</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="12">
+        <v>1</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="25"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="K4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>2</v>
+      </c>
+      <c r="R4" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:18">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>75</v>
+      </c>
+      <c r="N5" s="12">
+        <v>2</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4">
+        <f>(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE)+45)-SUM(B7:B14)</f>
         <v>0</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <f>45-SUM(B7:B14)</f>
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>75</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>2</v>
+      </c>
+      <c r="R6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1">
+        <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8">
+        <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1">
-        <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1">
-        <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="K8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>1</v>
+      </c>
+      <c r="R8" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:18">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="K10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>1</v>
+      </c>
+      <c r="R10" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:18">
+      <c r="A11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="7">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="5">
+        <f>13-SUM(D12,F12,D14,F14)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="K11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="26"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="12">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12">
-        <f>13-SUM(D13,F13,D15,F15)</f>
+      <c r="G12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" t="str">
+        <f>VLOOKUP(SUM(M4:M10)/7,后台数据!G13:H18,2,TRUE)</f>
+        <v>T3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12">
+        <f>ROUNDDOWN(SUM(Q2:Q10)/5,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="12">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
+      <c r="A14" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5">
+        <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+D2*5,25+D2*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15">
-        <f>(IF(D4=3,20+D2*5,25+D2*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>52</v>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>54</v>
+      <c r="G16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:10">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>56</v>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18">
+        <v>71</v>
+      </c>
+      <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>59</v>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19">
+        <v>74</v>
+      </c>
+      <c r="D19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>61</v>
+      <c r="G19" s="6"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20">
+        <v>76</v>
+      </c>
+      <c r="D20" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>63</v>
+      <c r="G20" s="6"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>65</v>
+      <c r="G21" s="6"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
+      <c r="A22" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>67</v>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" t="s">
-        <v>70</v>
+      <c r="G23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="4"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>72</v>
+      <c r="G24" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="O24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
-        <v>77</v>
+        <v>90</v>
+      </c>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25">
+        <v>92</v>
+      </c>
+      <c r="D25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" t="s">
-        <v>79</v>
+      <c r="G25" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M25" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="O25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:16">
+      <c r="A26" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" t="s">
-        <v>89</v>
-      </c>
-      <c r="O26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27">
+      <c r="G26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="10">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1862,9 +2378,12 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"男性,女性,双成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>后台数据!$C$22:$C$40</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
@@ -1926,18 +2445,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1948,10 +2467,22 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>350</v>
       </c>
@@ -1962,10 +2493,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <f>A2*1.2</f>
         <v>420</v>
@@ -1977,10 +2520,22 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A25" si="0">A3*1.2</f>
         <v>504</v>
@@ -1992,10 +2547,22 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>604.8</v>
@@ -2007,10 +2574,22 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>725.76</v>
@@ -2019,7 +2598,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2027,8 +2606,14 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>870.912</v>
@@ -2037,7 +2622,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2045,8 +2630,14 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7">
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1045.0944</v>
@@ -2055,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2063,8 +2654,14 @@
       <c r="E8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1254.11328</v>
@@ -2073,7 +2670,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2081,8 +2678,14 @@
       <c r="E9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1504.935936</v>
@@ -2091,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2099,8 +2702,14 @@
       <c r="E10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1805.9231232</v>
@@ -2109,7 +2718,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2117,8 +2726,14 @@
       <c r="E11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11">
+        <v>22</v>
+      </c>
+      <c r="H11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>2167.10774784</v>
@@ -2127,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -2135,8 +2750,14 @@
       <c r="E12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>2600.529297408</v>
@@ -2145,7 +2766,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -2153,8 +2774,14 @@
       <c r="E13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>3120.6351568896</v>
@@ -2163,7 +2790,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -2171,8 +2798,14 @@
       <c r="E14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>3744.76218826752</v>
@@ -2181,7 +2814,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2189,8 +2822,14 @@
       <c r="E15">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>4493.71462592102</v>
@@ -2199,10 +2838,19 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>5392.45755110523</v>
@@ -2211,10 +2859,16 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>128</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>6470.94906132627</v>
@@ -2223,7 +2877,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>129</v>
+      </c>
+      <c r="G18">
+        <v>125</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2235,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2247,7 +2907,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2259,10 +2919,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>13418.1599735662</v>
@@ -2270,8 +2930,14 @@
       <c r="B22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>16101.7919682794</v>
@@ -2279,8 +2945,14 @@
       <c r="B23">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>19322.1503619353</v>
@@ -2288,14 +2960,146 @@
       <c r="B24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23186.5804343223</v>
       </c>
       <c r="B25">
         <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7425" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9915" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -13,10 +13,8 @@
     <sheet name="身体状况" sheetId="4" r:id="rId4"/>
     <sheet name="心灵状况" sheetId="5" r:id="rId5"/>
     <sheet name="后台数据" sheetId="6" r:id="rId6"/>
+    <sheet name="少女的秘密" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡面!$A$1:$G$27</definedName>
   </definedNames>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
   <si>
     <t>玩家名：</t>
   </si>
@@ -39,9 +37,18 @@
     <t>衣装</t>
   </si>
   <si>
+    <t>完整度</t>
+  </si>
+  <si>
+    <t>耐久</t>
+  </si>
+  <si>
     <t>护甲</t>
   </si>
   <si>
+    <t>护甲等级</t>
+  </si>
+  <si>
     <t>姓名：</t>
   </si>
   <si>
@@ -90,39 +97,39 @@
     <t>无种族特性</t>
   </si>
   <si>
+    <t>内衣</t>
+  </si>
+  <si>
+    <t>轻薄内衣</t>
+  </si>
+  <si>
+    <t>身躯</t>
+  </si>
+  <si>
+    <t>修补的镀银护甲</t>
+  </si>
+  <si>
+    <t>职业：</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>色域等级：</t>
+  </si>
+  <si>
+    <t>破旧的贵族洋装</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>象限</t>
+  </si>
+  <si>
     <t>年龄</t>
   </si>
   <si>
-    <t>内衣</t>
-  </si>
-  <si>
-    <t>轻薄内衣</t>
-  </si>
-  <si>
-    <t>身躯</t>
-  </si>
-  <si>
-    <t>修补的镀银护甲</t>
-  </si>
-  <si>
-    <t>职业：</t>
-  </si>
-  <si>
-    <t>骑士</t>
-  </si>
-  <si>
-    <t>色域等级：</t>
-  </si>
-  <si>
-    <t>破旧的贵族洋装</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>象限</t>
-  </si>
-  <si>
     <t>手臂</t>
   </si>
   <si>
@@ -207,9 +214,6 @@
     <t>瘴气抵抗</t>
   </si>
   <si>
-    <t>护甲等级</t>
-  </si>
-  <si>
     <t>感知</t>
   </si>
   <si>
@@ -348,75 +352,75 @@
     <t>洞察</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>巫剑</t>
+  </si>
+  <si>
+    <t>游侠</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>刺客</t>
+  </si>
+  <si>
+    <t>猎巫人</t>
+  </si>
+  <si>
+    <t>侍从</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>女仆</t>
+  </si>
+  <si>
     <t>T1</t>
   </si>
   <si>
-    <t>I</t>
+    <t>侍剑</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <t>II</t>
+    <t>炼金术师</t>
   </si>
   <si>
     <t>T3</t>
   </si>
   <si>
-    <t>III</t>
+    <t>构筑师</t>
   </si>
   <si>
     <t>T4</t>
   </si>
   <si>
-    <t>IV</t>
+    <t>枪卫</t>
   </si>
   <si>
     <t>T5</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>战士</t>
-  </si>
-  <si>
-    <t>巫剑</t>
-  </si>
-  <si>
-    <t>游侠</t>
-  </si>
-  <si>
-    <t>猎人</t>
-  </si>
-  <si>
-    <t>刺客</t>
-  </si>
-  <si>
-    <t>猎巫人</t>
-  </si>
-  <si>
-    <t>侍从</t>
-  </si>
-  <si>
-    <t>T0</t>
-  </si>
-  <si>
-    <t>女仆</t>
-  </si>
-  <si>
-    <t>侍剑</t>
-  </si>
-  <si>
-    <t>炼金术师</t>
-  </si>
-  <si>
-    <t>构筑师</t>
-  </si>
-  <si>
-    <t>枪卫</t>
-  </si>
-  <si>
     <t>魔法师</t>
   </si>
   <si>
@@ -478,6 +482,21 @@
   </si>
   <si>
     <t>宁静化身</t>
+  </si>
+  <si>
+    <t>开发程度</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -486,10 +505,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -501,7 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,28 +528,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,9 +573,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,6 +628,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -599,31 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,14 +662,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -650,36 +669,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -695,7 +684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,55 +720,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,13 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,31 +816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,12 +853,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,6 +946,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -942,26 +985,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,34 +1038,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,10 +1051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,137 +1063,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,51 +1225,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -1338,27 +1312,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="人物表"/>
-      <sheetName val="参数等等（勿动）"/>
-      <sheetName val="技能"/>
-      <sheetName val="人物参数表"/>
-      <sheetName val="人物信息"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1637,8 +1590,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1662,234 +1615,242 @@
         <v>3</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17" t="s">
+      <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="24"/>
+      <c r="N1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(F2,后台数据!A1:B25,2,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>3800</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20">
-        <v>0</v>
-      </c>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:18">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(D2,后台数据!A26:B50,2,2)</f>
+        <v>T1</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(D2,后台数据!C1:D5,2,2)</f>
-        <v>T3</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="25"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
-      <c r="O4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="20">
+      <c r="O4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:18">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5">
         <v>75</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="25"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="4">
-        <f>(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE)+45)-SUM(B7:B14)</f>
-        <v>0</v>
+        <f>(IFERROR(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
+        <v>-7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>16</v>
+      </c>
       <c r="K6" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6">
         <v>75</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="20">
+      <c r="N6" s="2"/>
+      <c r="O6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2">
         <v>2</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>4</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>75</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="25"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="7">
         <v>10</v>
@@ -1897,71 +1858,71 @@
       <c r="C8" s="6"/>
       <c r="F8" s="7"/>
       <c r="K8" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="2">
         <v>1</v>
       </c>
-      <c r="O8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="P8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="20">
+      <c r="O8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="2">
         <v>1</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>2</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M9">
         <v>50</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="2">
         <v>1</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="25"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:18">
       <c r="A10" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
         <v>7</v>
@@ -1971,37 +1932,37 @@
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="K10" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M10">
         <v>50</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="20">
+      <c r="N10" s="2"/>
+      <c r="O10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="2">
         <v>1</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:18">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D11" s="5">
         <f>13-SUM(D12,F12,D14,F14)</f>
@@ -2010,50 +1971,50 @@
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="K11" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="26"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="12">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(SUM(M4:M10)/7,后台数据!G13:H18,2,TRUE)</f>
         <v>T3</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="P12">
         <f>ROUNDDOWN(SUM(Q2:Q10)/5,0)</f>
@@ -2062,33 +2023,33 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="12">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="6"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="13">
+        <v>64</v>
+      </c>
+      <c r="B14" s="10">
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" s="10">
         <v>2</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="13">
+        <v>66</v>
+      </c>
+      <c r="F14" s="10">
         <v>4</v>
       </c>
       <c r="G14" s="6"/>
@@ -2096,11 +2057,11 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5">
         <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+D2*5,25+D2*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
-        <v>0</v>
+        <v>-42</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -2109,13 +2070,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -2125,13 +2086,13 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
@@ -2143,19 +2104,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2163,13 +2124,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
@@ -2179,13 +2140,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="7">
         <v>5</v>
@@ -2195,13 +2156,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" s="7">
         <v>5</v>
@@ -2211,37 +2172,37 @@
     </row>
     <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7">
         <v>25</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="23"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2255,107 +2216,107 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P25" s="7"/>
     </row>
     <row r="26" ht="14.25" spans="1:16">
       <c r="A26" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D26" s="7">
         <v>0</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L26" s="10"/>
       <c r="M26" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N26" s="10"/>
       <c r="O26" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P26" s="11"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B27" s="10">
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D27" s="11">
         <v>0</v>
@@ -2445,10 +2406,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2463,17 +2424,11 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
       <c r="E1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -2488,12 +2443,6 @@
       </c>
       <c r="B2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -2516,17 +2465,11 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>111</v>
-      </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2543,17 +2486,11 @@
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -2570,17 +2507,11 @@
       <c r="B5">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>115</v>
-      </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2598,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2622,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -2646,7 +2577,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2670,7 +2601,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2694,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2718,7 +2649,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2742,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -2766,7 +2697,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -2778,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2790,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -2802,7 +2733,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2814,7 +2745,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2826,7 +2757,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2838,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2847,7 +2778,7 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2865,7 +2796,7 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2877,13 +2808,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G18">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2895,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2907,7 +2838,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2919,7 +2850,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2931,7 +2862,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2946,7 +2877,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2961,7 +2892,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2976,130 +2907,300 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
       <c r="C29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>123</v>
+      </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
       <c r="C32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
       <c r="C33" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D33">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D35">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D36">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>127</v>
+      </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D38">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D39">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>127</v>
+      </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D40">
         <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3122,4 +3223,51 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -349,7 +349,7 @@
     <t>刻印</t>
   </si>
   <si>
-    <t>洞察</t>
+    <t>侦查</t>
   </si>
   <si>
     <t>I</t>
@@ -506,9 +506,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -641,9 +641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +655,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,43 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,73 +732,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,6 +756,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -846,13 +804,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,145 +1051,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" ht="14.25" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>107</v>
       </c>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9915" activeTab="6"/>
+    <workbookView windowWidth="27870" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -504,10 +504,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -528,14 +528,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -543,15 +550,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,15 +572,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,30 +585,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,7 +604,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,11 +624,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,13 +672,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,37 +756,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,19 +810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,85 +840,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,6 +946,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -957,15 +977,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,20 +1013,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,8 +1038,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,145 +1051,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,8 +1590,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2033,7 +2033,7 @@
       <c r="G13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" ht="14.25" spans="1:10">
+    <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
@@ -2060,8 +2060,8 @@
         <v>67</v>
       </c>
       <c r="B15" s="5">
-        <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+D2*5,25+D2*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
-        <v>-42</v>
+        <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
+        <v>-45</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>107</v>
       </c>
@@ -3230,7 +3230,7 @@
   <sheetPr/>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>玩家名：</t>
   </si>
@@ -487,16 +487,64 @@
     <t>开发程度</t>
   </si>
   <si>
+    <t>履历</t>
+  </si>
+  <si>
+    <t>全身立绘</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
+    <t>经验次数</t>
+  </si>
+  <si>
+    <t>V中出次数</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
+    <t>妊娠次数</t>
+  </si>
+  <si>
+    <t>A中出次数</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>出产次数</t>
+  </si>
+  <si>
+    <t>浴精次数</t>
+  </si>
+  <si>
+    <t>口交次数</t>
+  </si>
+  <si>
+    <t>饮精次数</t>
+  </si>
+  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>乳交次数</t>
+  </si>
+  <si>
+    <t>异常状态</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>生效条件</t>
+  </si>
+  <si>
+    <t>类别</t>
   </si>
 </sst>
 </file>
@@ -505,10 +553,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -519,18 +567,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,8 +582,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -556,25 +612,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,35 +622,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,25 +641,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,7 +720,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,79 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,49 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +882,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,11 +996,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,6 +1047,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,21 +1078,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1010,39 +1091,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1051,10 +1099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1063,133 +1111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1590,7 +1638,7 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -2033,7 +2081,7 @@
       <c r="G13" s="6"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="9" t="s">
         <v>64</v>
       </c>
@@ -2408,13 +2456,14 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9.375" style="1"/>
+    <col min="7" max="7" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2817,7 +2866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>7765.13887359152</v>
@@ -2828,8 +2877,14 @@
       <c r="C19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>9318.16664830983</v>
@@ -2840,8 +2895,14 @@
       <c r="C20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>11181.7999779718</v>
@@ -2852,8 +2913,15 @@
       <c r="C21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="G21">
+        <f>ROUNDDOWN(G20+G20*1.5,0)</f>
+        <v>75</v>
+      </c>
+      <c r="H21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>13418.1599735662</v>
@@ -2867,8 +2935,15 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="G22">
+        <f>ROUNDDOWN(G21+G21*1.5,0)</f>
+        <v>187</v>
+      </c>
+      <c r="H22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>16101.7919682794</v>
@@ -2881,6 +2956,13 @@
       </c>
       <c r="D23">
         <v>1</v>
+      </c>
+      <c r="G23">
+        <f>ROUNDDOWN(G22+G22*1.5,0)</f>
+        <v>467</v>
+      </c>
+      <c r="H23" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3228,42 +3310,225 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="D1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,后台数据!G$19:H$23,2,TRUE)</f>
+        <v>T1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>159</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(B3,后台数据!G$19:H$23,2,TRUE)</f>
+        <v>T1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(B4,后台数据!G$19:H$23,2,TRUE)</f>
+        <v>T1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(B5,后台数据!G$19:H$23,2,TRUE)</f>
+        <v>T1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>167</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(B6,后台数据!G$19:H$23,2,TRUE)</f>
+        <v>T1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>玩家名：</t>
   </si>
@@ -517,19 +517,16 @@
     <t>出产次数</t>
   </si>
   <si>
+    <t>异常经验</t>
+  </si>
+  <si>
     <t>浴精次数</t>
   </si>
   <si>
-    <t>口交次数</t>
+    <t>A</t>
   </si>
   <si>
     <t>饮精次数</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>乳交次数</t>
   </si>
   <si>
     <t>异常状态</t>
@@ -552,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -567,11 +564,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,7 +649,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,76 +695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,29 +705,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -720,13 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,37 +735,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,6 +813,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,7 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +843,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,37 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,8 +994,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,24 +1056,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1077,17 +1080,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,10 +1096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,133 +1108,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2424,7 +2421,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3312,8 +3309,8 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3383,7 +3380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3397,13 +3394,10 @@
       <c r="D5" t="s">
         <v>165</v>
       </c>
-      <c r="F5" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3413,12 +3407,12 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3428,19 +3422,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -3450,19 +3444,19 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" t="s">
         <v>170</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>171</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -3472,19 +3466,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
         <v>170</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>171</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -3494,41 +3488,41 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s">
         <v>170</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>171</v>
-      </c>
-      <c r="C25" t="s">
-        <v>172</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" t="s">
         <v>170</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>171</v>
-      </c>
-      <c r="C30" t="s">
-        <v>172</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="3"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="203">
   <si>
     <t>玩家名：</t>
   </si>
@@ -352,6 +352,90 @@
     <t>侦查</t>
   </si>
   <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>身体异常</t>
+  </si>
+  <si>
+    <t>毒素成分</t>
+  </si>
+  <si>
+    <t>当前浓度</t>
+  </si>
+  <si>
+    <t>极限浓度</t>
+  </si>
+  <si>
+    <t>起效</t>
+  </si>
+  <si>
+    <t>头部</t>
+  </si>
+  <si>
+    <t>血液毒素</t>
+  </si>
+  <si>
+    <t>神经毒素</t>
+  </si>
+  <si>
+    <t>麻痹毒素</t>
+  </si>
+  <si>
+    <t>媚药成分</t>
+  </si>
+  <si>
+    <t>身体机能</t>
+  </si>
+  <si>
+    <t>躯干</t>
+  </si>
+  <si>
+    <t>要害</t>
+  </si>
+  <si>
+    <t>思维</t>
+  </si>
+  <si>
+    <t>抵抗</t>
+  </si>
+  <si>
+    <t>回复</t>
+  </si>
+  <si>
+    <t>解毒</t>
+  </si>
+  <si>
+    <t>挥舞</t>
+  </si>
+  <si>
+    <t>偏斜</t>
+  </si>
+  <si>
+    <t>精工</t>
+  </si>
+  <si>
+    <t>腿部</t>
+  </si>
+  <si>
+    <t>闪躲</t>
+  </si>
+  <si>
+    <t>奔跑</t>
+  </si>
+  <si>
+    <t>灵魂烙印</t>
+  </si>
+  <si>
+    <t>意识指令</t>
+  </si>
+  <si>
+    <t>心理阴影</t>
+  </si>
+  <si>
+    <t>外物之思</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
@@ -523,10 +607,16 @@
     <t>浴精次数</t>
   </si>
   <si>
+    <t>凌辱经验</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
     <t>饮精次数</t>
+  </si>
+  <si>
+    <t>屈服经验</t>
   </si>
   <si>
     <t>异常状态</t>
@@ -549,10 +639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
@@ -564,105 +654,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -679,8 +670,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,8 +700,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,6 +764,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,61 +807,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,67 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,7 +861,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,19 +915,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,9 +1013,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -934,7 +1022,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -991,11 +1081,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,6 +1101,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,6 +1135,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1039,52 +1170,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1096,10 +1186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,133 +1198,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,34 +1335,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,7 +1726,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1656,21 +1746,21 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="4" t="s">
@@ -1689,15 +1779,15 @@
       </c>
       <c r="D2">
         <f>VLOOKUP(F2,后台数据!A1:B25,2,TRUE)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6" t="s">
+        <v>3745</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
@@ -1706,17 +1796,17 @@
       <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10">
         <v>0</v>
       </c>
-      <c r="R2" s="7"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
@@ -1730,9 +1820,9 @@
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(D2,后台数据!A26:B50,2,2)</f>
-        <v>T1</v>
-      </c>
-      <c r="K3" s="6" t="s">
+        <v>T3</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L3" t="s">
@@ -1741,13 +1831,13 @@
       <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="10">
         <v>1</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="7"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
@@ -1759,10 +1849,10 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L4" t="s">
@@ -1771,19 +1861,19 @@
       <c r="M4">
         <v>100</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="10">
         <v>1</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="10">
         <v>2</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1797,7 +1887,7 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="L5" t="s">
@@ -1806,27 +1896,27 @@
       <c r="M5">
         <v>75</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="4">
         <f>(IFERROR(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
-        <v>-7</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
         <v>34</v>
@@ -1834,7 +1924,7 @@
       <c r="H6">
         <v>16</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L6" t="s">
@@ -1843,28 +1933,28 @@
       <c r="M6">
         <v>75</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="10"/>
+      <c r="O6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="10">
         <v>2</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="1">
@@ -1874,11 +1964,11 @@
       <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="11">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>4</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="L7" t="s">
@@ -1887,22 +1977,22 @@
       <c r="M7">
         <v>75</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="7"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="K8" s="6" t="s">
+      <c r="C8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="K8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="L8" t="s">
@@ -1911,30 +2001,30 @@
       <c r="M8">
         <v>100</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="10">
         <v>1</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="10">
         <v>1</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="1">
@@ -1944,11 +2034,11 @@
       <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="11">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>2</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>49</v>
       </c>
       <c r="L9" t="s">
@@ -1957,26 +2047,26 @@
       <c r="M9">
         <v>50</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="10">
         <v>1</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="7"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" ht="14.25" spans="1:18">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="K10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="K10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L10" t="s">
@@ -1985,55 +2075,55 @@
       <c r="M10">
         <v>50</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="10"/>
+      <c r="O10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="10">
         <v>1</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:18">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <f>13-SUM(D12,F12,D14,F14)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D12">
@@ -2042,14 +2132,14 @@
       <c r="E12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="10">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
         <v>62</v>
@@ -2067,54 +2157,54 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="6"/>
-      <c r="J13" s="7"/>
+      <c r="C13" s="5"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" ht="14.25" spans="1:10">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>4</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="J14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
-        <v>-45</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>-3</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="G15" s="6"/>
-      <c r="J15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B16">
@@ -2123,14 +2213,14 @@
       <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="J16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" ht="14.25" spans="1:10">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B17">
@@ -2139,16 +2229,16 @@
       <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B18">
@@ -2157,18 +2247,18 @@
       <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B19">
@@ -2177,14 +2267,14 @@
       <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="J19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B20">
@@ -2193,14 +2283,14 @@
       <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="J20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B21">
@@ -2209,14 +2299,14 @@
       <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="J21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" ht="14.25" spans="1:10">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B22">
@@ -2225,16 +2315,16 @@
       <c r="C22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>25</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B23">
@@ -2243,24 +2333,24 @@
       <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B24">
@@ -2269,10 +2359,10 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I24" t="s">
@@ -2287,10 +2377,10 @@
       <c r="O24" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B25">
@@ -2299,10 +2389,10 @@
       <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>95</v>
       </c>
       <c r="I25" t="s">
@@ -2317,10 +2407,10 @@
       <c r="O25" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="7"/>
+      <c r="P25" s="6"/>
     </row>
     <row r="26" ht="14.25" spans="1:16">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B26">
@@ -2329,41 +2419,41 @@
       <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>0</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="8"/>
+      <c r="K26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10" t="s">
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10" t="s">
+      <c r="N26" s="8"/>
+      <c r="O26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="P26" s="11"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>0</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2388,11 +2478,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"男性,女性,双成"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>后台数据!$C$22:$C$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2419,14 +2509,225 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:11">
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="5"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="7:11">
+      <c r="G8" s="5"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:11">
+      <c r="B17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="7:11">
+      <c r="G18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="7:11">
+      <c r="G19" s="5"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="7:11">
+      <c r="G20" s="5"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="7:11">
+      <c r="G21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="7:11">
+      <c r="G22" s="5"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="7:11">
+      <c r="G23" s="5"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="7:11">
+      <c r="G24" s="5"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="7:11">
+      <c r="G25" s="5"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="7:11">
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2435,14 +2736,191 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="14.25"/>
+    <row r="2" spans="2:12">
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="H9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="H11" s="5"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:12">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" ht="14.25"/>
+    <row r="15" spans="2:12">
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="5"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="5"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="H18" s="5"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="5"/>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="5"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="5"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:12">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="5"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="8:12">
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -2453,7 +2931,7 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2474,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -2494,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2515,7 +2993,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -2536,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -2557,7 +3035,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2575,7 +3053,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2623,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2647,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -2671,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -2695,7 +3173,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -2719,7 +3197,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -2743,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -2755,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2767,7 +3245,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -2779,7 +3257,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2791,7 +3269,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -2803,7 +3281,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2815,7 +3293,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2824,7 +3302,7 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2836,13 +3314,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2854,13 +3332,13 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G18">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2872,13 +3350,13 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2890,13 +3368,13 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2908,14 +3386,14 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <f>ROUNDDOWN(G20+G20*1.5,0)</f>
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2937,7 +3415,7 @@
         <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2949,7 +3427,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2959,7 +3437,7 @@
         <v>467</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2971,7 +3449,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2986,7 +3464,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2997,10 +3475,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3011,10 +3489,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3025,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -3039,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -3053,10 +3531,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3067,10 +3545,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -3081,10 +3559,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -3095,10 +3573,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -3109,10 +3587,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -3123,10 +3601,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -3137,10 +3615,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -3151,10 +3629,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -3165,10 +3643,10 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -3179,10 +3657,10 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C39" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -3193,10 +3671,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -3207,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3215,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3223,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3231,7 +3709,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3239,7 +3717,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3247,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3255,7 +3733,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3263,7 +3741,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3271,7 +3749,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3279,7 +3757,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3309,26 +3787,26 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3338,15 +3816,15 @@
         <v>T1</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3356,15 +3834,15 @@
         <v>T1</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3374,15 +3852,15 @@
         <v>T1</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3392,12 +3870,15 @@
         <v>T1</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>193</v>
+      </c>
+      <c r="F5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3407,122 +3888,125 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="6"/>
+    <workbookView windowWidth="27315" windowHeight="13065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
-    <sheet name="卡面" sheetId="1" r:id="rId2"/>
-    <sheet name="Buff&amp;Debuff" sheetId="2" r:id="rId3"/>
-    <sheet name="身体状况" sheetId="4" r:id="rId4"/>
-    <sheet name="心灵状况" sheetId="5" r:id="rId5"/>
-    <sheet name="后台数据" sheetId="6" r:id="rId6"/>
-    <sheet name="少女的秘密" sheetId="7" r:id="rId7"/>
+    <sheet name="创建面板" sheetId="1" r:id="rId2"/>
+    <sheet name="人格面板" sheetId="8" r:id="rId3"/>
+    <sheet name="Buff&amp;Debuff" sheetId="2" r:id="rId4"/>
+    <sheet name="身体状况" sheetId="4" r:id="rId5"/>
+    <sheet name="心灵状况" sheetId="5" r:id="rId6"/>
+    <sheet name="后台数据" sheetId="6" r:id="rId7"/>
+    <sheet name="少女的秘密" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡面!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">创建面板!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="279">
   <si>
     <t>玩家名：</t>
   </si>
@@ -350,6 +351,234 @@
   </si>
   <si>
     <t>侦查</t>
+  </si>
+  <si>
+    <t>战斗相关</t>
+  </si>
+  <si>
+    <t>生存相关</t>
+  </si>
+  <si>
+    <t>社交相关</t>
+  </si>
+  <si>
+    <t>谜题相关</t>
+  </si>
+  <si>
+    <t>Overkill相关</t>
+  </si>
+  <si>
+    <t>打败强敌</t>
+  </si>
+  <si>
+    <t>脱离战斗锁</t>
+  </si>
+  <si>
+    <t>重创下幸存</t>
+  </si>
+  <si>
+    <t>防御超过2次</t>
+  </si>
+  <si>
+    <t>通过挑战</t>
+  </si>
+  <si>
+    <t>没有通过挑战</t>
+  </si>
+  <si>
+    <t>暴力破解谜题成功</t>
+  </si>
+  <si>
+    <t>没有破解谜题</t>
+  </si>
+  <si>
+    <t>达成overkill</t>
+  </si>
+  <si>
+    <t>打败弱敌</t>
+  </si>
+  <si>
+    <t>强敌战幸存</t>
+  </si>
+  <si>
+    <t>逃跑</t>
+  </si>
+  <si>
+    <t>挑战幸存</t>
+  </si>
+  <si>
+    <t>拒绝挑战</t>
+  </si>
+  <si>
+    <t>破解谜题</t>
+  </si>
+  <si>
+    <t>没有揭露谜题</t>
+  </si>
+  <si>
+    <t>战斗胜利</t>
+  </si>
+  <si>
+    <t>弱敌战逃跑</t>
+  </si>
+  <si>
+    <t>战斗幸存</t>
+  </si>
+  <si>
+    <t>没有逃离强敌</t>
+  </si>
+  <si>
+    <t>社交好结果</t>
+  </si>
+  <si>
+    <t>没有拒绝挑战</t>
+  </si>
+  <si>
+    <t>揭露谜题</t>
+  </si>
+  <si>
+    <t>破解谜题失败</t>
+  </si>
+  <si>
+    <t>弱敌战幸存</t>
+  </si>
+  <si>
+    <t>没有逃离战斗</t>
+  </si>
+  <si>
+    <t>没到重创幸存</t>
+  </si>
+  <si>
+    <t>受到伤害超过2次</t>
+  </si>
+  <si>
+    <t>社交不是坏结果</t>
+  </si>
+  <si>
+    <t>遇到挑战</t>
+  </si>
+  <si>
+    <t>惊吓之后没有受伤</t>
+  </si>
+  <si>
+    <t>惊吓之后没有逃跑</t>
+  </si>
+  <si>
+    <t>脱离战斗</t>
+  </si>
+  <si>
+    <t>造成Overkill</t>
+  </si>
+  <si>
+    <t>战利品相关</t>
+  </si>
+  <si>
+    <t>商品相关</t>
+  </si>
+  <si>
+    <t>饮食相关</t>
+  </si>
+  <si>
+    <t>道具相关</t>
+  </si>
+  <si>
+    <t>性欲相关</t>
+  </si>
+  <si>
+    <t>获得高阶奖励</t>
+  </si>
+  <si>
+    <t>任务没有获得奖励</t>
+  </si>
+  <si>
+    <t>II以上优势购买商品</t>
+  </si>
+  <si>
+    <t>没有卖出优势II以上的商品</t>
+  </si>
+  <si>
+    <t>连续2天3餐都吃优质食物</t>
+  </si>
+  <si>
+    <t>吃到了劣质食物</t>
+  </si>
+  <si>
+    <t>不使用道具也没有重创而幸存</t>
+  </si>
+  <si>
+    <t>危机以外的情况使用道具</t>
+  </si>
+  <si>
+    <t>性欲超过15的情况下高潮消解性欲</t>
+  </si>
+  <si>
+    <t>性欲超过10度过1天</t>
+  </si>
+  <si>
+    <t>获得了奖励</t>
+  </si>
+  <si>
+    <t>拒绝了奖励</t>
+  </si>
+  <si>
+    <t>1天3餐吃了优质食物</t>
+  </si>
+  <si>
+    <t>1天吃1次以上劣质食物</t>
+  </si>
+  <si>
+    <t>3餐炊饭</t>
+  </si>
+  <si>
+    <t>陷入饥饿</t>
+  </si>
+  <si>
+    <t>没有在战利品遭遇中消耗道具</t>
+  </si>
+  <si>
+    <t>战利品遭遇中消耗道具后失败</t>
+  </si>
+  <si>
+    <t>三餐进食</t>
+  </si>
+  <si>
+    <t>1天吃超过1次优质食物</t>
+  </si>
+  <si>
+    <t>消除性欲</t>
+  </si>
+  <si>
+    <t>使用道具消除性欲</t>
+  </si>
+  <si>
+    <t>没有在战利品遭遇中受伤</t>
+  </si>
+  <si>
+    <t>战利品遭遇中受伤</t>
+  </si>
+  <si>
+    <t>顺利购买商品</t>
+  </si>
+  <si>
+    <t>危机状态时，没有对应物品</t>
+  </si>
+  <si>
+    <t>没有在饥饿状态下过1天</t>
+  </si>
+  <si>
+    <t>食用优质食物</t>
+  </si>
+  <si>
+    <t>使用道具解除负面状态</t>
+  </si>
+  <si>
+    <t>在危机状态时没有使用道具</t>
+  </si>
+  <si>
+    <t>性欲不超过50度过1天</t>
+  </si>
+  <si>
+    <t>性欲超过50度过1天</t>
   </si>
   <si>
     <t>血液</t>
@@ -639,11 +868,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -651,6 +880,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,7 +929,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -678,7 +937,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,55 +997,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,45 +1019,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,13 +1036,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,13 +1084,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,49 +1144,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,25 +1162,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,37 +1210,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,6 +1310,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1091,30 +1329,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1131,26 +1345,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,8 +1367,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,148 +1412,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1332,7 +1561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1362,7 +1591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1726,7 +1955,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1909,7 +2138,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="4">
-        <f>(IFERROR(VLOOKUP(卡面!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
+        <f>(IFERROR(VLOOKUP(创建面板!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2365,19 +2594,38 @@
       <c r="G24" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="H24">
+        <f>(D7*20+D12*5+B8)</f>
+        <v>130</v>
+      </c>
       <c r="I24" t="s">
         <v>89</v>
       </c>
+      <c r="J24">
+        <f>D7*5</f>
+        <v>25</v>
+      </c>
       <c r="K24" t="s">
         <v>90</v>
       </c>
+      <c r="L24">
+        <f>D7+B8</f>
+        <v>15</v>
+      </c>
       <c r="M24" t="s">
         <v>91</v>
       </c>
+      <c r="N24">
+        <f>IF(B16*3+B7*3&gt;95,95,B16*3+B7*3)</f>
+        <v>95</v>
+      </c>
       <c r="O24" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="6"/>
+      <c r="P24" s="6">
+        <f>D22*3+F14*3</f>
+        <v>87</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
@@ -2395,19 +2643,38 @@
       <c r="G25" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="H25">
+        <f>B11</f>
+        <v>5</v>
+      </c>
       <c r="I25" t="s">
         <v>96</v>
       </c>
+      <c r="J25">
+        <f>D9*5</f>
+        <v>15</v>
+      </c>
       <c r="K25" t="s">
         <v>97</v>
       </c>
+      <c r="L25">
+        <f>VLOOKUP(B8,后台数据!E16:F25,2,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="M25" t="s">
         <v>98</v>
       </c>
+      <c r="N25">
+        <f>IF(B17*3+B7*3&gt;95,95,B17*3+B7*3)</f>
+        <v>60</v>
+      </c>
       <c r="O25" t="s">
         <v>99</v>
       </c>
-      <c r="P25" s="6"/>
+      <c r="P25" s="6">
+        <f>D21*3+D14*3</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="26" ht="14.25" spans="1:16">
       <c r="A26" s="5" t="s">
@@ -2425,23 +2692,38 @@
       <c r="G26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <f>B8*2+F7*3</f>
+        <v>32</v>
+      </c>
       <c r="I26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="8">
+        <f>B8+D7</f>
+        <v>15</v>
+      </c>
       <c r="K26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="L26" s="8"/>
+      <c r="L26" s="8">
+        <f>B8+D7</f>
+        <v>15</v>
+      </c>
       <c r="M26" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="N26" s="8"/>
+      <c r="N26" s="8">
+        <f>IF(B18*3+B10*3&gt;95,95,B18*3+B10*3)</f>
+        <v>21</v>
+      </c>
       <c r="O26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="9">
+        <f>D23*3+D12*3</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="7" t="s">
@@ -2478,11 +2760,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"男性,女性,双成"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+      <formula1>后台数据!$C$22:$C$40</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>"战士,骑士,巫剑,游侠,猎人,刺客,修女,巫女,猎巫人,侍从,女仆,侍剑,炼金术师,构筑师,枪卫,魔法师,司书,魔法少女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>后台数据!$C$22:$C$40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2491,6 +2773,449 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="24.875" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="28.875" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>173</v>
+      </c>
+      <c r="O13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" t="s">
+        <v>182</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>183</v>
+      </c>
+      <c r="O14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2506,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:K26"/>
@@ -2520,13 +3245,13 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -2535,25 +3260,25 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5"/>
@@ -2561,7 +3286,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="5"/>
@@ -2569,7 +3294,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="5"/>
@@ -2577,7 +3302,7 @@
     </row>
     <row r="7" ht="14.25" spans="2:11">
       <c r="B7" s="7" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -2591,18 +3316,18 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="2" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="5"/>
@@ -2613,17 +3338,17 @@
         <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>123</v>
+        <v>199</v>
       </c>
       <c r="G11" s="5"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="5" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="5"/>
@@ -2631,13 +3356,13 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="5" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="G13" s="5"/>
       <c r="K13" s="6"/>
@@ -2652,13 +3377,13 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>129</v>
+        <v>205</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>35</v>
@@ -2667,7 +3392,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="D16" s="6"/>
       <c r="G16" s="5"/>
@@ -2675,10 +3400,10 @@
     </row>
     <row r="17" ht="14.25" spans="2:11">
       <c r="B17" s="7" t="s">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>101</v>
@@ -2700,7 +3425,7 @@
     </row>
     <row r="21" spans="7:11">
       <c r="G21" s="5" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -2733,7 +3458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:L26"/>
@@ -2747,14 +3472,14 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2836,14 +3561,14 @@
     <row r="14" ht="14.25"/>
     <row r="15" spans="2:12">
       <c r="B15" s="2" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2926,13 +3651,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2952,7 +3677,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -2972,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -2993,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -3014,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3035,7 +3760,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -3053,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3101,7 +3826,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3125,7 +3850,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3149,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3173,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3197,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3221,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -3233,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3245,7 +3970,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -3257,7 +3982,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3269,7 +3994,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -3281,7 +4006,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3293,16 +4018,22 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
       <c r="G16">
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3314,13 +4045,19 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>232</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
       </c>
       <c r="G17">
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3332,13 +4069,19 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>234</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
       </c>
       <c r="G18">
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3350,13 +4093,19 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>160</v>
+        <v>236</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3368,13 +4117,19 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>237</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
       </c>
       <c r="G20">
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3386,14 +4141,20 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>238</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
       </c>
       <c r="G21">
         <f>ROUNDDOWN(G20+G20*1.5,0)</f>
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3410,12 +4171,18 @@
       <c r="D22">
         <v>0</v>
       </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
       <c r="G22">
         <f>ROUNDDOWN(G21+G21*1.5,0)</f>
         <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3427,20 +4194,26 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="D23">
         <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
       </c>
       <c r="G23">
         <f>ROUNDDOWN(G22+G22*1.5,0)</f>
         <v>467</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>19322.1503619353</v>
@@ -3449,13 +4222,19 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>23186.5804343223</v>
@@ -3464,10 +4243,16 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="D25">
         <v>3</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3475,10 +4260,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -3489,10 +4274,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -3503,10 +4288,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -3517,10 +4302,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -3531,10 +4316,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -3545,10 +4330,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -3559,10 +4344,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -3573,10 +4358,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -3587,10 +4372,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -3601,10 +4386,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -3615,10 +4400,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -3629,10 +4414,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -3643,10 +4428,10 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -3657,10 +4442,10 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -3671,10 +4456,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -3685,7 +4470,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3693,7 +4478,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3701,7 +4486,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3709,7 +4494,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3717,7 +4502,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3725,7 +4510,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3733,7 +4518,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3741,7 +4526,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3749,7 +4534,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3757,7 +4542,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3782,12 +4567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3795,18 +4580,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="J1" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3816,15 +4601,15 @@
         <v>T1</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3834,15 +4619,15 @@
         <v>T1</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3852,15 +4637,15 @@
         <v>T1</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3870,15 +4655,15 @@
         <v>T1</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3888,125 +4673,125 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
         <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D25" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/深红地牢2期模板.xlsx
+++ b/深红地牢2期模板.xlsx
@@ -4,31 +4,125 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27315" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="27315" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="3" r:id="rId1"/>
-    <sheet name="创建面板" sheetId="1" r:id="rId2"/>
-    <sheet name="人格面板" sheetId="8" r:id="rId3"/>
-    <sheet name="Buff&amp;Debuff" sheetId="2" r:id="rId4"/>
-    <sheet name="身体状况" sheetId="4" r:id="rId5"/>
-    <sheet name="心灵状况" sheetId="5" r:id="rId6"/>
-    <sheet name="后台数据" sheetId="6" r:id="rId7"/>
-    <sheet name="少女的秘密" sheetId="7" r:id="rId8"/>
+    <sheet name="使用面板" sheetId="9" r:id="rId2"/>
+    <sheet name="创建面板" sheetId="1" r:id="rId3"/>
+    <sheet name="人格面板" sheetId="8" r:id="rId4"/>
+    <sheet name="Buff&amp;Debuff" sheetId="2" r:id="rId5"/>
+    <sheet name="身体状况" sheetId="4" r:id="rId6"/>
+    <sheet name="心灵状况" sheetId="5" r:id="rId7"/>
+    <sheet name="后台数据" sheetId="6" r:id="rId8"/>
+    <sheet name="少女的秘密" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">创建面板!$A$1:$G$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">创建面板!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="357">
+  <si>
+    <t>玩家信息</t>
+  </si>
   <si>
     <t>玩家名：</t>
   </si>
   <si>
+    <t>姓名：</t>
+  </si>
+  <si>
+    <t>种族：</t>
+  </si>
+  <si>
+    <t>性别：</t>
+  </si>
+  <si>
+    <t>职业：</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>技能成功率</t>
+  </si>
+  <si>
+    <t>近战武器</t>
+  </si>
+  <si>
+    <t>学究</t>
+  </si>
+  <si>
+    <t>搏斗</t>
+  </si>
+  <si>
+    <t>开锁</t>
+  </si>
+  <si>
+    <t>弓弩</t>
+  </si>
+  <si>
+    <t>潜行</t>
+  </si>
+  <si>
+    <t>投掷</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>仪式</t>
+  </si>
+  <si>
+    <t>阴谋</t>
+  </si>
+  <si>
+    <t>通灵</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>手工</t>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>机械</t>
+  </si>
+  <si>
+    <t>说服</t>
+  </si>
+  <si>
+    <t>特殊武器</t>
+  </si>
+  <si>
+    <t>急救</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>跨障</t>
+  </si>
+  <si>
+    <t>刻印</t>
+  </si>
+  <si>
+    <t>侦查</t>
+  </si>
+  <si>
     <t>DM</t>
   </si>
   <si>
@@ -50,9 +144,6 @@
     <t>护甲等级</t>
   </si>
   <si>
-    <t>姓名：</t>
-  </si>
-  <si>
     <t>奥罗拉</t>
   </si>
   <si>
@@ -71,9 +162,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>种族：</t>
-  </si>
-  <si>
     <t>人类</t>
   </si>
   <si>
@@ -86,9 +174,6 @@
     <t>诅咒项圈</t>
   </si>
   <si>
-    <t>性别：</t>
-  </si>
-  <si>
     <t>女性</t>
   </si>
   <si>
@@ -110,9 +195,6 @@
     <t>修补的镀银护甲</t>
   </si>
   <si>
-    <t>职业：</t>
-  </si>
-  <si>
     <t>骑士</t>
   </si>
   <si>
@@ -122,9 +204,6 @@
     <t>破旧的贵族洋装</t>
   </si>
   <si>
-    <t>属性</t>
-  </si>
-  <si>
     <t>象限</t>
   </si>
   <si>
@@ -230,66 +309,12 @@
     <t>人物技能</t>
   </si>
   <si>
-    <t>近战武器</t>
-  </si>
-  <si>
-    <t>学究</t>
-  </si>
-  <si>
-    <t>搏斗</t>
-  </si>
-  <si>
-    <t>开锁</t>
-  </si>
-  <si>
-    <t>弓弩</t>
-  </si>
-  <si>
-    <t>潜行</t>
-  </si>
-  <si>
     <t>快速栏</t>
   </si>
   <si>
-    <t>投掷</t>
-  </si>
-  <si>
-    <t>陷阱</t>
-  </si>
-  <si>
-    <t>仪式</t>
-  </si>
-  <si>
-    <t>阴谋</t>
-  </si>
-  <si>
-    <t>通灵</t>
-  </si>
-  <si>
-    <t>闪避</t>
-  </si>
-  <si>
-    <t>手工</t>
-  </si>
-  <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>反击</t>
-  </si>
-  <si>
     <t>速查</t>
   </si>
   <si>
-    <t>机械</t>
-  </si>
-  <si>
-    <t>说服</t>
-  </si>
-  <si>
     <t>最大生命力</t>
   </si>
   <si>
@@ -305,12 +330,6 @@
     <t>主动格挡</t>
   </si>
   <si>
-    <t>特殊武器</t>
-  </si>
-  <si>
-    <t>急救</t>
-  </si>
-  <si>
     <t>最大魔力</t>
   </si>
   <si>
@@ -326,12 +345,6 @@
     <t>主动闪避</t>
   </si>
   <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>跨障</t>
-  </si>
-  <si>
     <t>最大体力</t>
   </si>
   <si>
@@ -347,12 +360,6 @@
     <t>主动反击</t>
   </si>
   <si>
-    <t>刻印</t>
-  </si>
-  <si>
-    <t>侦查</t>
-  </si>
-  <si>
     <t>战斗相关</t>
   </si>
   <si>
@@ -579,6 +586,234 @@
   </si>
   <si>
     <t>性欲超过50度过1天</t>
+  </si>
+  <si>
+    <t>救助相关</t>
+  </si>
+  <si>
+    <t>排欲相关</t>
+  </si>
+  <si>
+    <t>帮助相关</t>
+  </si>
+  <si>
+    <t>治疗相关</t>
+  </si>
+  <si>
+    <t>杀戮相关</t>
+  </si>
+  <si>
+    <t>高危环境救出危机角色</t>
+  </si>
+  <si>
+    <t>1天内没有完成救出</t>
+  </si>
+  <si>
+    <t>帮助性欲25以上队友排解至0</t>
+  </si>
+  <si>
+    <t>目睹队友发情</t>
+  </si>
+  <si>
+    <t>帮助角色而不惜永久献出属性</t>
+  </si>
+  <si>
+    <t>拒绝帮助角色</t>
+  </si>
+  <si>
+    <t>将危机状态角色治疗脱离重创</t>
+  </si>
+  <si>
+    <t>队友生命力未满时治疗自己</t>
+  </si>
+  <si>
+    <t>没有进行追击</t>
+  </si>
+  <si>
+    <t>目睹Instakill和以上的杀戮</t>
+  </si>
+  <si>
+    <t>高危环境救出角色</t>
+  </si>
+  <si>
+    <t>救出失败</t>
+  </si>
+  <si>
+    <t>为危机角色治疗</t>
+  </si>
+  <si>
+    <t>队友危机时治疗自己</t>
+  </si>
+  <si>
+    <t>杀死敌人前对其祈祷</t>
+  </si>
+  <si>
+    <t>目睹Overkill</t>
+  </si>
+  <si>
+    <t>将角色治疗脱离重创</t>
+  </si>
+  <si>
+    <t>优先治疗了自己导致队友倒下</t>
+  </si>
+  <si>
+    <t>救出角色，没有伤亡</t>
+  </si>
+  <si>
+    <t>没有参与救援导致角色伤亡</t>
+  </si>
+  <si>
+    <t>为角色治疗</t>
+  </si>
+  <si>
+    <t>没有为生命力最低的角色治疗</t>
+  </si>
+  <si>
+    <t>杀死失去战意的敌人</t>
+  </si>
+  <si>
+    <t>遭到背叛</t>
+  </si>
+  <si>
+    <t>从救援行动中幸存</t>
+  </si>
+  <si>
+    <t>参与了救援，结果出现角色伤亡</t>
+  </si>
+  <si>
+    <t>消除发情队友的性欲</t>
+  </si>
+  <si>
+    <t>遭到发情队友侵犯</t>
+  </si>
+  <si>
+    <t>拒绝了损失属性的救助</t>
+  </si>
+  <si>
+    <t>分享属性后救助失败</t>
+  </si>
+  <si>
+    <t>优先治疗最低生命力或能治疗的角色</t>
+  </si>
+  <si>
+    <t>治疗对象在下一回合倒下</t>
+  </si>
+  <si>
+    <t>使带有复活能力的敌人不能复活</t>
+  </si>
+  <si>
+    <t>让失去控制的角色造成伤亡</t>
+  </si>
+  <si>
+    <t>抵挡相关</t>
+  </si>
+  <si>
+    <t>承诺相关</t>
+  </si>
+  <si>
+    <t>瞩目相关</t>
+  </si>
+  <si>
+    <t>侵袭相关</t>
+  </si>
+  <si>
+    <t>帮助队友抵挡可致命攻击</t>
+  </si>
+  <si>
+    <t>近距离内队友进入重创</t>
+  </si>
+  <si>
+    <t>完成超过自身梯阶II的承诺</t>
+  </si>
+  <si>
+    <t>拒绝承诺或者没能完成</t>
+  </si>
+  <si>
+    <t>承受最多火力，但是没有重创</t>
+  </si>
+  <si>
+    <t>目睹非敌方角色重创</t>
+  </si>
+  <si>
+    <t>多重战斗锁的情况下击败3个高阶敌人</t>
+  </si>
+  <si>
+    <t>被借机攻击瞄准</t>
+  </si>
+  <si>
+    <t>击杀遭遇的领主</t>
+  </si>
+  <si>
+    <t>放任侵袭事件发生</t>
+  </si>
+  <si>
+    <t>帮助队友抵挡重创攻击</t>
+  </si>
+  <si>
+    <t>近距离内队友倒下</t>
+  </si>
+  <si>
+    <t>承受最多火力，没有倒下</t>
+  </si>
+  <si>
+    <t>目睹非敌方角色倒下</t>
+  </si>
+  <si>
+    <t>击退领主</t>
+  </si>
+  <si>
+    <t>放任侵袭事件导致伤亡</t>
+  </si>
+  <si>
+    <t>承受最多火力</t>
+  </si>
+  <si>
+    <t>得到队友帮助抵挡致命攻击</t>
+  </si>
+  <si>
+    <t>帮助队友抵挡攻击导致自身倒下</t>
+  </si>
+  <si>
+    <t>没有承受最高火力并倒下</t>
+  </si>
+  <si>
+    <t>承受了最大火力并导致生命力最低</t>
+  </si>
+  <si>
+    <t>成功阻止侵袭事件造成伤亡</t>
+  </si>
+  <si>
+    <t>猎杀领主导致角色伤亡</t>
+  </si>
+  <si>
+    <t>得到队友帮助抵挡重创攻击</t>
+  </si>
+  <si>
+    <t>进入重创</t>
+  </si>
+  <si>
+    <t>完成承诺</t>
+  </si>
+  <si>
+    <t>许诺超过自身梯阶的承诺</t>
+  </si>
+  <si>
+    <t>没有倒下</t>
+  </si>
+  <si>
+    <t>承受了最大火力</t>
+  </si>
+  <si>
+    <t>偷袭成功</t>
+  </si>
+  <si>
+    <t>被锁在战斗锁中3回合</t>
+  </si>
+  <si>
+    <t>成功阻止侵袭事件</t>
+  </si>
+  <si>
+    <t>阻止侵袭事件导致伤亡</t>
   </si>
   <si>
     <t>血液</t>
@@ -868,11 +1103,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -890,11 +1125,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,7 +1148,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,23 +1192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,24 +1202,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -982,28 +1217,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1019,9 +1232,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,19 +1271,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,79 +1301,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,7 +1319,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,61 +1439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,21 +1554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1366,9 +1586,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,173 +1642,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1561,7 +1796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1591,7 +1826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1952,10 +2187,163 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="2:4">
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="C16" sqref="C16:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1967,69 +2355,69 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <f>VLOOKUP(F2,后台数据!A1:B25,2,TRUE)</f>
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>3745</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
@@ -2039,26 +2427,26 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(D2,后台数据!A26:B50,2,2)</f>
         <v>T3</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="N3" s="10">
         <v>1</v>
@@ -2070,22 +2458,22 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2094,10 +2482,10 @@
         <v>1</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="10">
         <v>2</v>
@@ -2108,19 +2496,19 @@
     </row>
     <row r="5" ht="14.25" spans="1:18">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <v>75</v>
@@ -2135,39 +2523,39 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4">
         <f>(IFERROR(VLOOKUP(创建面板!D2,后台数据!G1:H12,2,TRUE),0)+45)-SUM(B7:B14)</f>
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>16</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M6">
         <v>75</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="5" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="10">
         <v>2</v>
@@ -2178,30 +2566,30 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <f>ROUNDUP(SUM(B7:B8)/4,0)</f>
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F7" s="11">
         <f>ROUNDUP(SUM(B9:B10)/4,0)</f>
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M7">
         <v>75</v>
@@ -2214,7 +2602,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -2222,10 +2610,10 @@
       <c r="C8" s="5"/>
       <c r="F8" s="6"/>
       <c r="K8" s="5" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -2234,10 +2622,10 @@
         <v>1</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="10">
         <v>1</v>
@@ -2248,30 +2636,30 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1">
         <f>ROUNDUP(SUM(B11:B12)/4,0)</f>
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F9" s="11">
         <f>ROUNDUP(SUM(B13:B14)/4,0)</f>
         <v>2</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M9">
         <v>50</v>
@@ -2286,7 +2674,7 @@
     </row>
     <row r="10" ht="14.25" spans="1:18">
       <c r="A10" s="5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6">
         <v>7</v>
@@ -2296,20 +2684,20 @@
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
       <c r="K10" s="5" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="M10">
         <v>50</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="5" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="10">
         <v>1</v>
@@ -2320,13 +2708,13 @@
     </row>
     <row r="11" ht="14.25" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D11" s="3">
         <f>13-SUM(D12,F12,D14,F14)</f>
@@ -2335,7 +2723,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -2347,38 +2735,38 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B12" s="10">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F12" s="10">
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(SUM(M4:M10)/7,后台数据!G13:H18,2,TRUE)</f>
         <v>T3</v>
       </c>
       <c r="O12" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="P12">
         <f>ROUNDDOWN(SUM(Q2:Q10)/5,0)</f>
@@ -2387,7 +2775,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="B13" s="10">
         <v>3</v>
@@ -2399,19 +2787,19 @@
     </row>
     <row r="14" ht="14.25" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B14" s="8">
         <v>3</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8">
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F14" s="8">
         <v>4</v>
@@ -2421,7 +2809,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3">
         <f>(IF(VLOOKUP(D4,后台数据!C22:C40,1,FALSE)="快速学习",20+(D2-1)*5,25+(D2-1)*3)-SUM(SUM(B16:B27),SUM(D17:D27)))</f>
@@ -2434,13 +2822,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
@@ -2450,13 +2838,13 @@
     </row>
     <row r="17" ht="14.25" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
@@ -2468,19 +2856,19 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2488,13 +2876,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6">
         <v>0</v>
@@ -2504,13 +2892,13 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6">
         <v>5</v>
@@ -2520,13 +2908,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="D21" s="6">
         <v>5</v>
@@ -2536,13 +2924,13 @@
     </row>
     <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6">
         <v>25</v>
@@ -2554,19 +2942,19 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -2580,47 +2968,47 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H24">
         <f>(D7*20+D12*5+B8)</f>
         <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J24">
         <f>D7*5</f>
         <v>25</v>
       </c>
       <c r="K24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L24">
         <f>D7+B8</f>
         <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N24">
         <f>IF(B16*3+B7*3&gt;95,95,B16*3+B7*3)</f>
         <v>95</v>
       </c>
       <c r="O24" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P24" s="6">
         <f>D22*3+F14*3</f>
@@ -2629,47 +3017,47 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="5" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H25">
         <f>B11</f>
         <v>5</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J25">
         <f>D9*5</f>
         <v>15</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L25">
         <f>VLOOKUP(B8,后台数据!E16:F25,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N25">
         <f>IF(B17*3+B7*3&gt;95,95,B17*3+B7*3)</f>
         <v>60</v>
       </c>
       <c r="O25" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P25" s="6">
         <f>D21*3+D14*3</f>
@@ -2678,47 +3066,47 @@
     </row>
     <row r="26" ht="14.25" spans="1:16">
       <c r="A26" s="5" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H26" s="8">
         <f>B8*2+F7*3</f>
         <v>32</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J26" s="8">
         <f>B8+D7</f>
         <v>15</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L26" s="8">
         <f>B8+D7</f>
         <v>15</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N26" s="8">
         <f>IF(B18*3+B10*3&gt;95,95,B18*3+B10*3)</f>
         <v>21</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P26" s="9">
         <f>D23*3+D12*3</f>
@@ -2727,13 +3115,13 @@
     </row>
     <row r="27" ht="14.25" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="B27" s="8">
         <v>0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="D27" s="9">
         <v>0</v>
@@ -2772,51 +3160,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="11" max="11" width="24.875" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="29.75" customWidth="1"/>
+    <col min="11" max="11" width="32.125" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="28.875" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2824,46 +3212,46 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G3">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2871,10 +3259,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -2883,19 +3271,19 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -2906,10 +3294,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -2929,10 +3317,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2941,19 +3329,19 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -2964,68 +3352,68 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -3033,46 +3421,46 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J10">
         <v>5</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3080,10 +3468,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -3092,10 +3480,10 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -3115,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -3132,10 +3520,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3144,10 +3532,10 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -3156,10 +3544,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -3167,46 +3555,461 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O14" t="s">
-        <v>184</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J16" t="s">
+        <v>190</v>
+      </c>
+      <c r="M16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>200</v>
+      </c>
+      <c r="O17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" t="s">
+        <v>205</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>206</v>
+      </c>
+      <c r="O18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" t="s">
+        <v>209</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s">
+        <v>223</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>224</v>
+      </c>
+      <c r="O21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>234</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>238</v>
+      </c>
+      <c r="O24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" t="s">
+        <v>243</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>246</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>257</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>261</v>
+      </c>
+      <c r="O28" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +4018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -3231,7 +4034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:K26"/>
@@ -3245,13 +4048,13 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3260,25 +4063,25 @@
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="5" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="E4" s="6"/>
       <c r="G4" s="5"/>
@@ -3286,7 +4089,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="5" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="E5" s="6"/>
       <c r="G5" s="5"/>
@@ -3294,7 +4097,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="5" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="E6" s="6"/>
       <c r="G6" s="5"/>
@@ -3302,7 +4105,7 @@
     </row>
     <row r="7" ht="14.25" spans="2:11">
       <c r="B7" s="7" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3316,18 +4119,18 @@
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="D10" s="6"/>
       <c r="G10" s="5"/>
@@ -3335,20 +4138,20 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="G11" s="5"/>
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="5" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="D12" s="6"/>
       <c r="G12" s="5"/>
@@ -3356,20 +4159,20 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="5" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="G13" s="5"/>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D14" s="6"/>
       <c r="G14" s="5"/>
@@ -3377,22 +4180,22 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="5" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="D16" s="6"/>
       <c r="G16" s="5"/>
@@ -3400,13 +4203,13 @@
     </row>
     <row r="17" ht="14.25" spans="2:11">
       <c r="B17" s="7" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="G17" s="5"/>
       <c r="K17" s="6"/>
@@ -3425,7 +4228,7 @@
     </row>
     <row r="21" spans="7:11">
       <c r="G21" s="5" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -3458,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:L26"/>
@@ -3472,14 +4275,14 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:12">
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3561,14 +4364,14 @@
     <row r="14" ht="14.25"/>
     <row r="15" spans="2:12">
       <c r="B15" s="2" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3651,7 +4454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H50"/>
@@ -3677,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="G1">
         <v>2</v>
@@ -3697,7 +4500,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3718,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -3739,7 +4542,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -3760,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -3778,7 +4581,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3802,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -3826,7 +4629,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3850,7 +4653,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -3874,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3898,7 +4701,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -3922,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -3946,7 +4749,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="D13">
         <v>16</v>
@@ -3958,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3970,7 +4773,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="D14">
         <v>18</v>
@@ -3982,7 +4785,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3994,7 +4797,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="D15">
         <v>20</v>
@@ -4006,7 +4809,7 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4018,7 +4821,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4033,7 +4836,7 @@
         <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4045,7 +4848,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4057,7 +4860,7 @@
         <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4069,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -4081,7 +4884,7 @@
         <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4093,7 +4896,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -4105,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4117,7 +4920,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -4129,7 +4932,7 @@
         <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4141,7 +4944,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -4154,7 +4957,7 @@
         <v>75</v>
       </c>
       <c r="H21" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4166,7 +4969,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -4182,7 +4985,7 @@
         <v>187</v>
       </c>
       <c r="H22" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4194,7 +4997,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -4210,7 +5013,7 @@
         <v>467</v>
       </c>
       <c r="H23" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4222,7 +5025,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -4243,7 +5046,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -4260,10 +5063,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -4274,10 +5077,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -4288,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -4302,10 +5105,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="D29">
         <v>7</v>
@@ -4316,10 +5119,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -4330,10 +5133,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="D31">
         <v>9</v>
@@ -4344,10 +5147,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -4358,10 +5161,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="D33">
         <v>11</v>
@@ -4372,10 +5175,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="D34">
         <v>12</v>
@@ -4386,10 +5189,10 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="D35">
         <v>13</v>
@@ -4400,10 +5203,10 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="D36">
         <v>14</v>
@@ -4414,10 +5217,10 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -4428,10 +5231,10 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -4442,10 +5245,10 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="D39">
         <v>17</v>
@@ -4456,10 +5259,10 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="D40">
         <v>18</v>
@@ -4470,7 +5273,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4478,7 +5281,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4486,7 +5289,7 @@
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4494,7 +5297,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4502,7 +5305,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4510,7 +5313,7 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4518,7 +5321,7 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4526,7 +5329,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4534,7 +5337,7 @@
         <v>24</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4542,7 +5345,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -4567,7 +5370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J30"/>
@@ -4580,18 +5383,18 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="J1" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4601,15 +5404,15 @@
         <v>T1</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4619,15 +5422,15 @@
         <v>T1</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4637,15 +5440,15 @@
         <v>T1</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -4655,15 +5458,15 @@
         <v>T1</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4673,125 +5476,125 @@
         <v>T1</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
